--- a/Account.xlsx
+++ b/Account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -161,6 +161,18 @@
   </x:si>
   <x:si>
     <x:t>User should be able to validate the Account is deleted</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_5.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Test</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab, and select the existing Account to delete</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -244,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J14" totalsRowShown="0">
-  <x:autoFilter ref="A1:J14"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0">
+  <x:autoFilter ref="A1:J16"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -550,7 +562,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J14"/>
+  <x:dimension ref="A1:J16"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -874,6 +886,50 @@
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
     </x:row>
+    <x:row r="15" spans="1:10">
+      <x:c r="A15" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:10">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/Account.xlsx
+++ b/Account.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F33F8B-5904-4736-B1EA-2FB9C76963AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79548805-35E3-4042-8AF7-4BC6AE37D3EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,13 +250,7 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J16" totalsRowShown="0">
-  <autoFilter ref="A1:J16" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Step 1"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:J16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="TestScenarioID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="TestCaseID"/>
@@ -636,7 +630,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>17</v>
       </c>
@@ -650,7 +644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
         <v>21</v>
       </c>
@@ -664,7 +658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
         <v>25</v>
       </c>
@@ -701,7 +695,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
         <v>18</v>
       </c>
@@ -738,7 +732,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>17</v>
       </c>
@@ -752,7 +746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>21</v>
       </c>
@@ -766,7 +760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>25</v>
       </c>
@@ -803,7 +797,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
         <v>18</v>
       </c>
@@ -814,7 +808,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F14" t="s">
         <v>22</v>
       </c>
@@ -851,7 +845,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:10" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
         <v>18</v>
       </c>
